--- a/BGM一览_20181027.xlsx
+++ b/BGM一览_20181027.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="769">
   <si>
     <t>Sensitive Heart</t>
     <phoneticPr fontId="6"/>
@@ -5198,6 +5198,336 @@
   </si>
   <si>
     <t>koakuma_1</t>
+  </si>
+  <si>
+    <t>kogasa_1</t>
+  </si>
+  <si>
+    <t>kokoro_1</t>
+  </si>
+  <si>
+    <t>komachi_2</t>
+  </si>
+  <si>
+    <t>komachi_1</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>konngara_1</t>
+  </si>
+  <si>
+    <t>kyouko_1</t>
+  </si>
+  <si>
+    <t>letty_1</t>
+  </si>
+  <si>
+    <t>lilywhite_1</t>
+  </si>
+  <si>
+    <t>marisa_1</t>
+  </si>
+  <si>
+    <t>marisa_2</t>
+  </si>
+  <si>
+    <t>marisa_3</t>
+  </si>
+  <si>
+    <t>marisa_4</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>marisa_5</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>medicine_1</t>
+  </si>
+  <si>
+    <t>meirin_2</t>
+  </si>
+  <si>
+    <t>meirin_1</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>miko_1</t>
+  </si>
+  <si>
+    <t>miko_2</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>mamizou_1</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>mima_1</t>
+  </si>
+  <si>
+    <t>minoriko_1</t>
+  </si>
+  <si>
+    <t>mokou_1</t>
+  </si>
+  <si>
+    <t>momizi_1</t>
+  </si>
+  <si>
+    <t>murasa_1</t>
+  </si>
+  <si>
+    <t>mystia_1</t>
+  </si>
+  <si>
+    <t>nazrin_1</t>
+  </si>
+  <si>
+    <t>nitori_1</t>
+  </si>
+  <si>
+    <t>nue_1</t>
+  </si>
+  <si>
+    <t>parsee_1</t>
+  </si>
+  <si>
+    <t>patchouli_1</t>
+  </si>
+  <si>
+    <t>prismriver_1</t>
+  </si>
+  <si>
+    <t>raiko_1</t>
+  </si>
+  <si>
+    <t>ran_1</t>
+  </si>
+  <si>
+    <t>reimu_2</t>
+  </si>
+  <si>
+    <t>reimu_1</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>reimu_4</t>
+  </si>
+  <si>
+    <t>reimu_3</t>
+  </si>
+  <si>
+    <t>reimu_5</t>
+  </si>
+  <si>
+    <t>reisen_1</t>
+  </si>
+  <si>
+    <t>reisen_2</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>remilia_2</t>
+  </si>
+  <si>
+    <t>remilia_1</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>renko_1</t>
+  </si>
+  <si>
+    <t>rikako_1</t>
+  </si>
+  <si>
+    <t>rin_1</t>
+  </si>
+  <si>
+    <t>rinnosuke_1</t>
+  </si>
+  <si>
+    <t>rumia_1</t>
+  </si>
+  <si>
+    <t>sagume_1</t>
+  </si>
+  <si>
+    <t>sakuya_2</t>
+  </si>
+  <si>
+    <t>sakuya_1</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>sanae_2</t>
+  </si>
+  <si>
+    <t>sanae_1</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>sariel_1</t>
+  </si>
+  <si>
+    <t>seiga_1</t>
+  </si>
+  <si>
+    <t>seiga_2</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>seija_1</t>
+  </si>
+  <si>
+    <t>seiran_1</t>
+  </si>
+  <si>
+    <t>sekibanki_1</t>
+  </si>
+  <si>
+    <t>shikieiki_2</t>
+  </si>
+  <si>
+    <t>shikieiki_1</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>shinki_1</t>
+  </si>
+  <si>
+    <t>shinmyoumaru_1</t>
+  </si>
+  <si>
+    <t>shizuha_1</t>
+  </si>
+  <si>
+    <t>suika_1</t>
+  </si>
+  <si>
+    <t>suika_2</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>sumireko_1</t>
+  </si>
+  <si>
+    <t>sunny_1</t>
+  </si>
+  <si>
+    <t>suwako_2</t>
+  </si>
+  <si>
+    <t>suwako_1</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>tenshi_1</t>
+  </si>
+  <si>
+    <t>tewi_1</t>
+  </si>
+  <si>
+    <t>toramaru_1</t>
+  </si>
+  <si>
+    <t>toyohime_1</t>
+  </si>
+  <si>
+    <t>toziko_1</t>
+  </si>
+  <si>
+    <r>
+      <t>朱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鹭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>子</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>utsuho_1</t>
+  </si>
+  <si>
+    <t>utsuho_2</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>wakasagihime_1</t>
+  </si>
+  <si>
+    <t>wriggle_1</t>
+  </si>
+  <si>
+    <t>yamame_1</t>
+  </si>
+  <si>
+    <t>yoshika_1</t>
+  </si>
+  <si>
+    <t>youmu_2</t>
+  </si>
+  <si>
+    <t>youmu_1</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>yugi_1</t>
+  </si>
+  <si>
+    <t>koishi_1</t>
+  </si>
+  <si>
+    <t>koishi_2</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>yuka_1</t>
+  </si>
+  <si>
+    <t>yuka_2</t>
+  </si>
+  <si>
+    <t>yukari_2</t>
+  </si>
+  <si>
+    <t>yukari_1</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>yumeko_1</t>
+  </si>
+  <si>
+    <t>yumemi_1</t>
+  </si>
+  <si>
+    <t>yuyuko_3</t>
+  </si>
+  <si>
+    <t>yuyuko_1</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>yuyuko_2</t>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -5846,11 +6176,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G189"/>
+  <dimension ref="A1:G190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5891,6 +6221,9 @@
       <c r="A3" s="15"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="16" t="s">
+        <v>708</v>
+      </c>
       <c r="B4" s="4" t="s">
         <v>349</v>
       </c>
@@ -5908,6 +6241,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="16" t="s">
+        <v>707</v>
+      </c>
       <c r="B5" s="5" t="s">
         <v>350</v>
       </c>
@@ -5925,6 +6261,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="16" t="s">
+        <v>710</v>
+      </c>
       <c r="B6" s="6" t="s">
         <v>351</v>
       </c>
@@ -5940,6 +6279,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="16" t="s">
+        <v>709</v>
+      </c>
       <c r="B7" s="4" t="s">
         <v>352</v>
       </c>
@@ -5955,6 +6297,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="16" t="s">
+        <v>711</v>
+      </c>
       <c r="B8" s="5" t="s">
         <v>353</v>
       </c>
@@ -5970,6 +6315,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="16" t="s">
+        <v>682</v>
+      </c>
       <c r="B9" s="6" t="s">
         <v>354</v>
       </c>
@@ -5987,6 +6335,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="16" t="s">
+        <v>683</v>
+      </c>
       <c r="B10" s="7" t="s">
         <v>619</v>
       </c>
@@ -6004,6 +6355,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="16" t="s">
+        <v>684</v>
+      </c>
       <c r="B11" s="4" t="s">
         <v>355</v>
       </c>
@@ -6021,6 +6375,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="16" t="s">
+        <v>685</v>
+      </c>
       <c r="B12" s="5" t="s">
         <v>342</v>
       </c>
@@ -6036,6 +6393,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="16" t="s">
+        <v>686</v>
+      </c>
       <c r="B13" s="6" t="s">
         <v>343</v>
       </c>
@@ -6051,6 +6411,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="16" t="s">
+        <v>693</v>
+      </c>
       <c r="B15" s="4" t="s">
         <v>214</v>
       </c>
@@ -6068,6 +6431,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="16" t="s">
+        <v>765</v>
+      </c>
       <c r="B16" s="5" t="s">
         <v>357</v>
       </c>
@@ -6121,6 +6487,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="16" t="s">
+        <v>717</v>
+      </c>
       <c r="B19" s="5" t="s">
         <v>360</v>
       </c>
@@ -6135,23 +6504,6 @@
       </c>
       <c r="F19" s="5" t="s">
         <v>358</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -6191,6 +6543,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="16" t="s">
+        <v>734</v>
+      </c>
       <c r="B23" s="6" t="s">
         <v>364</v>
       </c>
@@ -6206,6 +6561,9 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="16" t="s">
+        <v>726</v>
+      </c>
       <c r="B25" s="5" t="s">
         <v>605</v>
       </c>
@@ -6221,6 +6579,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="16" t="s">
+        <v>678</v>
+      </c>
       <c r="B26" s="8" t="s">
         <v>607</v>
       </c>
@@ -6236,6 +6597,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="16" t="s">
+        <v>764</v>
+      </c>
       <c r="B27" s="4" t="s">
         <v>614</v>
       </c>
@@ -6251,6 +6615,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="16" t="s">
+        <v>720</v>
+      </c>
       <c r="B29" s="5" t="s">
         <v>367</v>
       </c>
@@ -6324,6 +6691,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="16" t="s">
+        <v>689</v>
+      </c>
       <c r="B33" s="6" t="s">
         <v>370</v>
       </c>
@@ -6341,6 +6711,9 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="16" t="s">
+        <v>688</v>
+      </c>
       <c r="B34" s="4" t="s">
         <v>371</v>
       </c>
@@ -6378,6 +6751,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="16" t="s">
+        <v>703</v>
+      </c>
       <c r="B36" s="6" t="s">
         <v>25</v>
       </c>
@@ -6395,6 +6771,9 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="16" t="s">
+        <v>723</v>
+      </c>
       <c r="B37" s="4" t="s">
         <v>36</v>
       </c>
@@ -6412,6 +6791,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="16" t="s">
+        <v>722</v>
+      </c>
       <c r="B38" s="5" t="s">
         <v>37</v>
       </c>
@@ -6429,6 +6811,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="16" t="s">
+        <v>715</v>
+      </c>
       <c r="B39" s="6" t="s">
         <v>378</v>
       </c>
@@ -6446,6 +6831,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="16" t="s">
+        <v>714</v>
+      </c>
       <c r="B40" s="4" t="s">
         <v>379</v>
       </c>
@@ -6503,6 +6891,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="16" t="s">
+        <v>680</v>
+      </c>
       <c r="B44" s="4" t="s">
         <v>50</v>
       </c>
@@ -6576,6 +6967,9 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="16" t="s">
+        <v>681</v>
+      </c>
       <c r="B48" s="4" t="s">
         <v>59</v>
       </c>
@@ -6593,6 +6987,9 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="16" t="s">
+        <v>704</v>
+      </c>
       <c r="B49" s="5" t="s">
         <v>386</v>
       </c>
@@ -6610,6 +7007,9 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="16" t="s">
+        <v>756</v>
+      </c>
       <c r="B50" s="6" t="s">
         <v>69</v>
       </c>
@@ -6625,6 +7025,9 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="16" t="s">
+        <v>755</v>
+      </c>
       <c r="B51" s="4" t="s">
         <v>70</v>
       </c>
@@ -6642,6 +7045,9 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="16" t="s">
+        <v>767</v>
+      </c>
       <c r="B52" s="5" t="s">
         <v>76</v>
       </c>
@@ -6659,6 +7065,9 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="16" t="s">
+        <v>768</v>
+      </c>
       <c r="B53" s="6" t="s">
         <v>77</v>
       </c>
@@ -6676,6 +7085,9 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="16" t="s">
+        <v>766</v>
+      </c>
       <c r="B54" s="4" t="s">
         <v>388</v>
       </c>
@@ -6693,6 +7105,9 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" s="16" t="s">
+        <v>706</v>
+      </c>
       <c r="B55" s="5" t="s">
         <v>389</v>
       </c>
@@ -6708,6 +7123,9 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="16" t="s">
+        <v>763</v>
+      </c>
       <c r="B56" s="6" t="s">
         <v>523</v>
       </c>
@@ -6725,6 +7143,9 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" s="16" t="s">
+        <v>762</v>
+      </c>
       <c r="B57" s="4" t="s">
         <v>394</v>
       </c>
@@ -6747,6 +7168,9 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" s="16" t="s">
+        <v>752</v>
+      </c>
       <c r="B59" s="5" t="s">
         <v>78</v>
       </c>
@@ -6762,6 +7186,9 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" s="16" t="s">
+        <v>698</v>
+      </c>
       <c r="B60" s="6" t="s">
         <v>395</v>
       </c>
@@ -6817,6 +7244,9 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" s="16" t="s">
+        <v>744</v>
+      </c>
       <c r="B63" s="6" t="s">
         <v>92</v>
       </c>
@@ -6834,6 +7264,9 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" s="16" t="s">
+        <v>712</v>
+      </c>
       <c r="B64" s="4" t="s">
         <v>398</v>
       </c>
@@ -6849,6 +7282,9 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" s="16" t="s">
+        <v>713</v>
+      </c>
       <c r="B65" s="5" t="s">
         <v>399</v>
       </c>
@@ -6942,6 +7378,9 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" s="16" t="s">
+        <v>695</v>
+      </c>
       <c r="B70" s="5" t="s">
         <v>402</v>
       </c>
@@ -6957,6 +7396,9 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" s="16" t="s">
+        <v>737</v>
+      </c>
       <c r="B72" s="6" t="s">
         <v>113</v>
       </c>
@@ -6974,6 +7416,9 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" s="16" t="s">
+        <v>738</v>
+      </c>
       <c r="B73" s="4" t="s">
         <v>114</v>
       </c>
@@ -6989,6 +7434,9 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" s="16" t="s">
+        <v>733</v>
+      </c>
       <c r="B74" s="5" t="s">
         <v>409</v>
       </c>
@@ -7004,6 +7452,9 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75" s="16" t="s">
+        <v>732</v>
+      </c>
       <c r="B75" s="6" t="s">
         <v>410</v>
       </c>
@@ -7019,6 +7470,9 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76" s="16" t="s">
+        <v>677</v>
+      </c>
       <c r="B76" s="4" t="s">
         <v>122</v>
       </c>
@@ -7034,6 +7488,9 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77" s="16" t="s">
+        <v>676</v>
+      </c>
       <c r="B77" s="5" t="s">
         <v>121</v>
       </c>
@@ -7051,6 +7508,9 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" s="16" t="s">
+        <v>760</v>
+      </c>
       <c r="B78" s="6" t="s">
         <v>412</v>
       </c>
@@ -7068,1556 +7528,1717 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B79" s="4" t="s">
+      <c r="A79" s="16" t="s">
+        <v>761</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" s="16" t="s">
+        <v>687</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C80" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4" t="s">
+      <c r="D80" s="4"/>
+      <c r="E80" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="F80" s="4" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B80" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="16" t="s">
-        <v>661</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>144</v>
+        <v>743</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="16" t="s">
+        <v>661</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A83" s="16" t="s">
         <v>657</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B83" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C83" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D83" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="E83" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="F83" s="4" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B83" s="5" t="s">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" s="16" t="s">
+        <v>675</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C84" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5" t="s">
+      <c r="D84" s="5"/>
+      <c r="E84" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="F84" s="5" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B84" s="6" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" s="16" t="s">
+        <v>739</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C85" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6" t="s">
+      <c r="D85" s="6"/>
+      <c r="E85" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="F84" s="6" t="s">
+      <c r="F85" s="6" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B86" s="4" t="s">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A87" s="16" t="s">
+        <v>736</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C87" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D87" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="E87" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F87" s="4" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B87" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="16" t="s">
+        <v>694</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A89" s="16" t="s">
         <v>659</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B89" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C89" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D89" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="E89" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F88" s="6" t="s">
+      <c r="F89" s="6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B89" s="4" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A90" s="16" t="s">
+        <v>700</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C90" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D90" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="E90" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="F90" s="4" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B90" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="16" t="s">
-        <v>636</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>425</v>
+        <v>696</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="16" t="s">
-        <v>637</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>347</v>
+        <v>636</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="16" t="s">
+        <v>637</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A94" s="16" t="s">
         <v>638</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B94" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C94" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5" t="s">
+      <c r="D94" s="5"/>
+      <c r="E94" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F93" s="5" t="s">
+      <c r="F94" s="5" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B94" s="6" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A95" s="16" t="s">
+        <v>725</v>
+      </c>
+      <c r="B95" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C95" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D95" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E94" s="6" t="s">
+      <c r="E95" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F94" s="6" t="s">
+      <c r="F95" s="6" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B95" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="16" t="s">
-        <v>667</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>176</v>
+        <v>724</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="16" t="s">
+        <v>667</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" s="16" t="s">
         <v>668</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B98" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C98" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D98" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="E97" s="6" t="s">
+      <c r="E98" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="F97" s="6" t="s">
+      <c r="F98" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B98" s="5" t="s">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" s="16" t="s">
+        <v>742</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C99" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D99" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E98" s="5" t="s">
+      <c r="E99" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F98" s="5" t="s">
+      <c r="F99" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B99" s="6" t="s">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A100" s="16" t="s">
+        <v>741</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C100" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D99" s="6" t="s">
+      <c r="D100" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="E99" s="6" t="s">
+      <c r="E100" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="F99" s="6" t="s">
+      <c r="F100" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A101" s="16" t="s">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A102" s="16" t="s">
         <v>672</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B102" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C102" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D102" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="E102" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F101" s="4" t="s">
+      <c r="F102" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B102" s="5" t="s">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A103" s="16" t="s">
+        <v>753</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C103" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5" t="s">
+      <c r="D103" s="5"/>
+      <c r="E103" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F102" s="5" t="s">
+      <c r="F103" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B103" s="6" t="s">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A104" s="16" t="s">
+        <v>702</v>
+      </c>
+      <c r="B104" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="C104" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="D104" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="E103" s="6" t="s">
+      <c r="E104" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="F103" s="6" t="s">
+      <c r="F104" s="6" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B104" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="16" t="s">
-        <v>633</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="F105" s="5" t="s">
-        <v>199</v>
+        <v>757</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="16" t="s">
+        <v>633</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A107" s="16" t="s">
         <v>634</v>
       </c>
-      <c r="B106" s="6"/>
-      <c r="C106" s="6" t="s">
+      <c r="B107" s="6"/>
+      <c r="C107" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="D106" s="6" t="s">
+      <c r="D107" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E106" s="6" t="s">
+      <c r="E107" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="F106" s="6" t="s">
+      <c r="F107" s="6" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B107" s="4" t="s">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A108" s="16" t="s">
+        <v>718</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C108" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D108" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E107" s="4" t="s">
+      <c r="E108" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F107" s="4" t="s">
+      <c r="F108" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B108" s="5" t="s">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A109" s="16" t="s">
+        <v>749</v>
+      </c>
+      <c r="B109" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C109" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="D109" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="E108" s="5" t="s">
+      <c r="E109" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F108" s="5" t="s">
+      <c r="F109" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B109" s="6" t="s">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A110" s="16" t="s">
+        <v>750</v>
+      </c>
+      <c r="B110" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6" t="s">
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F109" s="6" t="s">
+      <c r="F110" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B110" s="4" t="s">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A111" s="16" t="s">
+        <v>758</v>
+      </c>
+      <c r="B111" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C111" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4" t="s">
+      <c r="D111" s="4"/>
+      <c r="E111" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F110" s="4" t="s">
+      <c r="F111" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B111" s="5"/>
-      <c r="C111" s="5" t="s">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A112" s="16" t="s">
+        <v>759</v>
+      </c>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D112" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="E111" s="5" t="s">
+      <c r="E112" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="F111" s="5" t="s">
+      <c r="F112" s="5" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B113" s="6" t="s">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A114" s="16" t="s">
+        <v>699</v>
+      </c>
+      <c r="B114" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="C113" s="6" t="s">
+      <c r="C114" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="D113" s="6" t="s">
+      <c r="D114" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="E113" s="6" t="s">
+      <c r="E114" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="F113" s="6" t="s">
+      <c r="F114" s="6" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B114" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="16" t="s">
+        <v>674</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A116" s="16" t="s">
         <v>660</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B116" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C116" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5" t="s">
+      <c r="D116" s="5"/>
+      <c r="E116" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F115" s="5" t="s">
+      <c r="F116" s="5" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B116" s="4" t="s">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A117" s="16" t="s">
+        <v>697</v>
+      </c>
+      <c r="B117" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C117" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="D117" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="E116" s="4" t="s">
+      <c r="E117" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="F116" s="4" t="s">
+      <c r="F117" s="4" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B117" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" s="16" t="s">
-        <v>641</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F118" s="6" t="s">
-        <v>119</v>
+        <v>745</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" s="16" t="s">
+        <v>641</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A120" s="16" t="s">
         <v>642</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B120" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C120" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="D119" s="4"/>
-      <c r="E119" s="4" t="s">
+      <c r="D120" s="4"/>
+      <c r="E120" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="F119" s="4" t="s">
+      <c r="F120" s="4" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B120" s="5" t="s">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A121" s="16" t="s">
+        <v>701</v>
+      </c>
+      <c r="B121" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="C121" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="D121" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="E120" s="5" t="s">
+      <c r="E121" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F120" s="5" t="s">
+      <c r="F121" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B122" s="6" t="s">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A123" s="16" t="s">
+        <v>679</v>
+      </c>
+      <c r="B123" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C122" s="6" t="s">
+      <c r="C123" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6" t="s">
+      <c r="D123" s="6"/>
+      <c r="E123" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F122" s="6" t="s">
+      <c r="F123" s="6" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B123" s="4" t="s">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A124" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C124" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D123" s="4" t="s">
+      <c r="D124" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E123" s="4" t="s">
+      <c r="E124" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F123" s="4" t="s">
+      <c r="F124" s="4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B124" s="5" t="s">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A125" s="16" t="s">
+        <v>727</v>
+      </c>
+      <c r="B125" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C125" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="D125" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E124" s="5" t="s">
+      <c r="E125" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="F124" s="5" t="s">
+      <c r="F125" s="5" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B125" s="4" t="s">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A126" s="16" t="s">
+        <v>728</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4" t="s">
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="F125" s="4" t="s">
+      <c r="F126" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B126" s="6" t="s">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B127" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="C126" s="6" t="s">
+      <c r="C127" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6" t="s">
+      <c r="D127" s="6"/>
+      <c r="E127" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F126" s="6" t="s">
+      <c r="F127" s="6" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A127" s="16" t="s">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A128" s="16" t="s">
         <v>655</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B128" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C128" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D127" s="4" t="s">
+      <c r="D128" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="E127" s="4" t="s">
+      <c r="E128" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="F127" s="4" t="s">
+      <c r="F128" s="4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B128" s="5" t="s">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A129" s="16" t="s">
+        <v>690</v>
+      </c>
+      <c r="B129" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="C129" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D128" s="5" t="s">
+      <c r="D129" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="E128" s="5" t="s">
+      <c r="E129" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="F128" s="5" t="s">
+      <c r="F129" s="5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B129" s="6" t="s">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A130" s="16" t="s">
+        <v>691</v>
+      </c>
+      <c r="B130" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C129" s="6" t="s">
+      <c r="C130" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="D129" s="6"/>
-      <c r="E129" s="6" t="s">
+      <c r="D130" s="6"/>
+      <c r="E130" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="F129" s="6" t="s">
+      <c r="F130" s="6" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B130" s="4" t="s">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A131" s="16" t="s">
+        <v>692</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C131" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="D130" s="4" t="s">
+      <c r="D131" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="E130" s="4" t="s">
+      <c r="E131" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="F130" s="4" t="s">
+      <c r="F131" s="4" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B132" s="5" t="s">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A133" s="16" t="s">
+        <v>751</v>
+      </c>
+      <c r="B133" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="C132" s="5" t="s">
+      <c r="C133" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5" t="s">
+      <c r="D133" s="5"/>
+      <c r="E133" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F132" s="5" t="s">
+      <c r="F133" s="5" t="s">
         <v>283</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B133" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="E133" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="F133" s="6" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" s="16" t="s">
-        <v>663</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>291</v>
+        <v>731</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" s="16" t="s">
-        <v>639</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="F135" s="5" t="s">
-        <v>131</v>
+        <v>663</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A137" s="16" t="s">
         <v>640</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B137" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="C136" s="6" t="s">
+      <c r="C137" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="D136" s="6" t="s">
+      <c r="D137" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="E136" s="6" t="s">
+      <c r="E137" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="F136" s="6" t="s">
+      <c r="F137" s="6" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B137" s="4" t="s">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A138" s="16" t="s">
+        <v>729</v>
+      </c>
+      <c r="B138" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="C138" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="D137" s="4" t="s">
+      <c r="D138" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="E137" s="4" t="s">
+      <c r="E138" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F137" s="4" t="s">
+      <c r="F138" s="4" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B138" s="5" t="s">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A139" s="16" t="s">
+        <v>735</v>
+      </c>
+      <c r="B139" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="C139" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="D139" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="E138" s="5" t="s">
+      <c r="E139" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F138" s="5" t="s">
+      <c r="F139" s="5" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B139" s="6" t="s">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A140" s="16" t="s">
+        <v>705</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="C139" s="6" t="s">
+      <c r="C140" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="D139" s="6"/>
-      <c r="E139" s="6" t="s">
+      <c r="D140" s="6"/>
+      <c r="E140" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="F139" s="6" t="s">
+      <c r="F140" s="6" t="s">
         <v>283</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B141" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B142" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B143" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B144" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C144" s="1" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B144" s="5" t="s">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B145" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="C144" s="5" t="s">
+      <c r="C145" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="D144" s="5"/>
-      <c r="E144" s="5" t="s">
+      <c r="D145" s="5"/>
+      <c r="E145" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="F144" s="10" t="s">
+      <c r="F145" s="10" t="s">
         <v>613</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B146" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A147" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F147" s="5" t="s">
-        <v>467</v>
+        <v>716</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148" s="16" t="s">
+        <v>635</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A149" s="16" t="s">
         <v>669</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="B149" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="C148" s="6" t="s">
+      <c r="C149" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="D148" s="6" t="s">
+      <c r="D149" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="E148" s="6" t="s">
+      <c r="E149" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="F148" s="6" t="s">
+      <c r="F149" s="6" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B149" s="4" t="s">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A150" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B150" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="C149" s="4" t="s">
+      <c r="C150" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="D149" s="4"/>
-      <c r="E149" s="4" t="s">
+      <c r="D150" s="4"/>
+      <c r="E150" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="F149" s="4" t="s">
+      <c r="F150" s="4" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B150" s="6" t="s">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A151" s="16" t="s">
+        <v>740</v>
+      </c>
+      <c r="B151" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C150" s="6" t="s">
+      <c r="C151" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="D150" s="6" t="s">
+      <c r="D151" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="E150" s="6" t="s">
+      <c r="E151" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="F150" s="6" t="s">
+      <c r="F151" s="6" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B151" s="4" t="s">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A152" s="16" t="s">
+        <v>719</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="C152" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="D151" s="4"/>
-      <c r="E151" s="4"/>
-      <c r="F151" s="4" t="s">
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A154" s="16" t="s">
-        <v>662</v>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A153" s="16" t="s">
+        <v>747</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A155" s="16" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A156" s="16" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A157" s="16" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A158" s="16" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B162" s="11" t="s">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A159" s="16" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A160" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B163" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="C162" s="11"/>
-      <c r="D162" s="11"/>
-      <c r="E162" s="11"/>
-      <c r="F162" s="11"/>
-    </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B163" s="9" t="s">
+      <c r="C163" s="11"/>
+      <c r="D163" s="11"/>
+      <c r="E163" s="11"/>
+      <c r="F163" s="11"/>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B164" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C164" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="D164" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="E163" s="1" t="s">
+      <c r="E164" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="F163" s="1" t="s">
+      <c r="F164" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B164" s="12" t="s">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B165" s="12" t="s">
         <v>526</v>
       </c>
-      <c r="C164" s="12" t="s">
+      <c r="C165" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="D164" s="12" t="s">
+      <c r="D165" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="E164" s="12" t="s">
+      <c r="E165" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="F164" s="12" t="s">
+      <c r="F165" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="G164" s="1" t="s">
+      <c r="G165" s="1" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B165" s="13" t="s">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B166" s="13" t="s">
         <v>531</v>
       </c>
-      <c r="C165" s="13" t="s">
+      <c r="C166" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="D165" s="13" t="s">
+      <c r="D166" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="E165" s="13" t="s">
+      <c r="E166" s="13" t="s">
         <v>476</v>
       </c>
-      <c r="F165" s="13" t="s">
+      <c r="F166" s="13" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B166" s="12" t="s">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B167" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="C166" s="12" t="s">
+      <c r="C167" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="D166" s="12" t="s">
+      <c r="D167" s="12" t="s">
         <v>495</v>
       </c>
-      <c r="E166" s="12" t="s">
+      <c r="E167" s="12" t="s">
         <v>496</v>
       </c>
-      <c r="F166" s="12" t="s">
+      <c r="F167" s="12" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B167" s="13" t="s">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B168" s="13" t="s">
         <v>536</v>
       </c>
-      <c r="C167" s="13" t="s">
+      <c r="C168" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="D167" s="13" t="s">
+      <c r="D168" s="13" t="s">
         <v>499</v>
       </c>
-      <c r="E167" s="13" t="s">
+      <c r="E168" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="F167" s="13" t="s">
+      <c r="F168" s="13" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B168" s="12" t="s">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B169" s="12" t="s">
         <v>533</v>
       </c>
-      <c r="C168" s="12" t="s">
+      <c r="C169" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="D168" s="12" t="s">
+      <c r="D169" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="E168" s="12" t="s">
+      <c r="E169" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="F168" s="12" t="s">
+      <c r="F169" s="12" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B169" s="13" t="s">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B170" s="13" t="s">
         <v>537</v>
       </c>
-      <c r="C169" s="13" t="s">
+      <c r="C170" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="D169" s="13" t="s">
+      <c r="D170" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="E169" s="13" t="s">
+      <c r="E170" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="F169" s="13" t="s">
+      <c r="F170" s="13" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B170" s="12" t="s">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B171" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="C170" s="12" t="s">
+      <c r="C171" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="D170" s="12" t="s">
+      <c r="D171" s="12" t="s">
         <v>510</v>
       </c>
-      <c r="E170" s="12" t="s">
+      <c r="E171" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="F170" s="12" t="s">
+      <c r="F171" s="12" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B171" s="13" t="s">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B172" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="C171" s="13" t="s">
+      <c r="C172" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="D171" s="13" t="s">
+      <c r="D172" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="E171" s="13" t="s">
+      <c r="E172" s="13" t="s">
         <v>515</v>
       </c>
-      <c r="F171" s="13" t="s">
+      <c r="F172" s="13" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B172" s="12" t="s">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B173" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="C172" s="12" t="s">
+      <c r="C173" s="12" t="s">
         <v>517</v>
       </c>
-      <c r="D172" s="12"/>
-      <c r="E172" s="12" t="s">
+      <c r="D173" s="12"/>
+      <c r="E173" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="F172" s="14" t="s">
+      <c r="F173" s="14" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B173" s="13" t="s">
+    <row r="174" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B174" s="13" t="s">
         <v>539</v>
       </c>
-      <c r="C173" s="13" t="s">
+      <c r="C174" s="13" t="s">
         <v>527</v>
       </c>
-      <c r="D173" s="13" t="s">
+      <c r="D174" s="13" t="s">
         <v>528</v>
       </c>
-      <c r="E173" s="13" t="s">
+      <c r="E174" s="13" t="s">
         <v>529</v>
       </c>
-      <c r="F173" s="13" t="s">
+      <c r="F174" s="13" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B175" s="12" t="s">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B176" s="12" t="s">
         <v>599</v>
       </c>
-      <c r="C175" s="12" t="s">
+      <c r="C176" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="D175" s="12" t="s">
+      <c r="D176" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="E175" s="12" t="s">
+      <c r="E176" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="F175" s="12" t="s">
+      <c r="F176" s="12" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B176" s="13" t="s">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B177" s="13" t="s">
         <v>569</v>
       </c>
-      <c r="C176" s="13" t="s">
+      <c r="C177" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="D176" s="13"/>
-      <c r="E176" s="13" t="s">
+      <c r="D177" s="13"/>
+      <c r="E177" s="13" t="s">
         <v>600</v>
       </c>
-      <c r="F176" s="13" t="s">
+      <c r="F177" s="13" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B177" s="12" t="s">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B178" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="C177" s="12" t="s">
+      <c r="C178" s="12" t="s">
         <v>545</v>
       </c>
-      <c r="D177" s="12" t="s">
+      <c r="D178" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="E177" s="12" t="s">
+      <c r="E178" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="F177" s="12" t="s">
+      <c r="F178" s="12" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B178" s="13" t="s">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B179" s="13" t="s">
         <v>572</v>
       </c>
-      <c r="C178" s="13" t="s">
+      <c r="C179" s="13" t="s">
         <v>550</v>
       </c>
-      <c r="D178" s="13" t="s">
+      <c r="D179" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="E178" s="13" t="s">
+      <c r="E179" s="13" t="s">
         <v>573</v>
       </c>
-      <c r="F178" s="13" t="s">
+      <c r="F179" s="13" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B179" s="12" t="s">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B180" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="C179" s="12" t="s">
+      <c r="C180" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="D179" s="12" t="s">
+      <c r="D180" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="E179" s="12" t="s">
+      <c r="E180" s="12" t="s">
         <v>552</v>
       </c>
-      <c r="F179" s="12" t="s">
+      <c r="F180" s="12" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B180" s="13" t="s">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B181" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="C180" s="13" t="s">
+      <c r="C181" s="13" t="s">
         <v>576</v>
       </c>
-      <c r="D180" s="13" t="s">
+      <c r="D181" s="13" t="s">
         <v>577</v>
       </c>
-      <c r="E180" s="13" t="s">
+      <c r="E181" s="13" t="s">
         <v>578</v>
       </c>
-      <c r="F180" s="13" t="s">
+      <c r="F181" s="13" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B181" s="12" t="s">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B182" s="12" t="s">
         <v>554</v>
       </c>
-      <c r="C181" s="12" t="s">
+      <c r="C182" s="12" t="s">
         <v>555</v>
       </c>
-      <c r="D181" s="12" t="s">
+      <c r="D182" s="12" t="s">
         <v>556</v>
       </c>
-      <c r="E181" s="12" t="s">
+      <c r="E182" s="12" t="s">
         <v>557</v>
       </c>
-      <c r="F181" s="12" t="s">
+      <c r="F182" s="12" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B182" s="13" t="s">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B183" s="13" t="s">
         <v>580</v>
       </c>
-      <c r="C182" s="13" t="s">
+      <c r="C183" s="13" t="s">
         <v>560</v>
       </c>
-      <c r="D182" s="13" t="s">
+      <c r="D183" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="E182" s="13" t="s">
+      <c r="E183" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="F182" s="13" t="s">
+      <c r="F183" s="13" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B183" s="12" t="s">
+    <row r="184" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B184" s="12" t="s">
         <v>559</v>
       </c>
-      <c r="C183" s="12" t="s">
+      <c r="C184" s="12" t="s">
         <v>560</v>
       </c>
-      <c r="D183" s="12" t="s">
+      <c r="D184" s="12" t="s">
         <v>561</v>
       </c>
-      <c r="E183" s="12" t="s">
+      <c r="E184" s="12" t="s">
         <v>562</v>
       </c>
-      <c r="F183" s="12" t="s">
+      <c r="F184" s="12" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B184" s="13" t="s">
+    <row r="185" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B185" s="13" t="s">
         <v>584</v>
       </c>
-      <c r="C184" s="13" t="s">
+      <c r="C185" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="D184" s="13" t="s">
+      <c r="D185" s="13" t="s">
         <v>586</v>
       </c>
-      <c r="E184" s="13" t="s">
+      <c r="E185" s="13" t="s">
         <v>573</v>
       </c>
-      <c r="F184" s="13" t="s">
+      <c r="F185" s="13" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B185" s="12" t="s">
+    <row r="186" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B186" s="12" t="s">
         <v>564</v>
       </c>
-      <c r="C185" s="12" t="s">
+      <c r="C186" s="12" t="s">
         <v>565</v>
       </c>
-      <c r="D185" s="12" t="s">
+      <c r="D186" s="12" t="s">
         <v>566</v>
       </c>
-      <c r="E185" s="12" t="s">
+      <c r="E186" s="12" t="s">
         <v>567</v>
       </c>
-      <c r="F185" s="12" t="s">
+      <c r="F186" s="12" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B187" s="13" t="s">
+    <row r="188" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B188" s="13" t="s">
         <v>588</v>
       </c>
-      <c r="C187" s="13" t="s">
+      <c r="C188" s="13" t="s">
         <v>589</v>
       </c>
-      <c r="D187" s="13" t="s">
+      <c r="D188" s="13" t="s">
         <v>590</v>
       </c>
-      <c r="E187" s="13" t="s">
+      <c r="E188" s="13" t="s">
         <v>591</v>
       </c>
-      <c r="F187" s="13" t="s">
+      <c r="F188" s="13" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B188" s="12" t="s">
+    <row r="189" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B189" s="12" t="s">
         <v>597</v>
       </c>
-      <c r="C188" s="12" t="s">
+      <c r="C189" s="12" t="s">
         <v>601</v>
       </c>
-      <c r="D188" s="12" t="s">
+      <c r="D189" s="12" t="s">
         <v>598</v>
       </c>
-      <c r="E188" s="12" t="s">
+      <c r="E189" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="F188" s="12" t="s">
+      <c r="F189" s="12" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B189" s="13" t="s">
+    <row r="190" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B190" s="13" t="s">
         <v>593</v>
       </c>
-      <c r="C189" s="13" t="s">
+      <c r="C190" s="13" t="s">
         <v>594</v>
       </c>
-      <c r="D189" s="13" t="s">
+      <c r="D190" s="13" t="s">
         <v>594</v>
       </c>
-      <c r="E189" s="13" t="s">
+      <c r="E190" s="13" t="s">
         <v>595</v>
       </c>
-      <c r="F189" s="13" t="s">
+      <c r="F190" s="13" t="s">
         <v>596</v>
       </c>
     </row>
